--- a/Database/Data_20150722/ProgramSemester.xlsx
+++ b/Database/Data_20150722/ProgramSemester.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="71">
   <si>
     <t>Specialized</t>
   </si>
@@ -191,16 +191,58 @@
   </si>
   <si>
     <t>VNR201/HCM201</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>IAO101</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>CSD202</t>
+  </si>
+  <si>
+    <t>IAP201</t>
+  </si>
+  <si>
+    <t>CES201</t>
+  </si>
+  <si>
+    <t>IA1</t>
+  </si>
+  <si>
+    <t>IAA301</t>
+  </si>
+  <si>
+    <t>IAA201</t>
+  </si>
+  <si>
+    <t>IAP301</t>
+  </si>
+  <si>
+    <t>SRE301</t>
+  </si>
+  <si>
+    <t>OSP201</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -232,9 +274,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,555 +613,721 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>7</v>
       </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>7</v>
       </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="2">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>7</v>
       </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>7</v>
       </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" s="2">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>7</v>
       </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" s="2">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C13">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C13" s="2">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C14" s="2">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="C15" s="2">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C16">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C16" s="2">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>9</v>
       </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="2">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>9</v>
       </c>
-      <c r="D18">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" s="2">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>9</v>
       </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="2">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>9</v>
       </c>
-      <c r="D20">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D20" s="2">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>9</v>
       </c>
-      <c r="D21">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D21" s="2">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>54</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="5">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="6">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>9</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="6">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2">
+        <v>9</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Database/Data_20150722/ProgramSemester.xlsx
+++ b/Database/Data_20150722/ProgramSemester.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
   <si>
     <t>Specialized</t>
   </si>
@@ -103,96 +103,9 @@
     <t>PRJ321</t>
   </si>
   <si>
-    <t>SWD391</t>
-  </si>
-  <si>
-    <t>MLN101</t>
-  </si>
-  <si>
-    <t>IS1</t>
-  </si>
-  <si>
-    <t>HCI201</t>
-  </si>
-  <si>
-    <t>ACC101</t>
-  </si>
-  <si>
-    <t>ISC301</t>
-  </si>
-  <si>
-    <t>IS2</t>
-  </si>
-  <si>
-    <t>ISM301</t>
-  </si>
-  <si>
-    <t>ES1</t>
-  </si>
-  <si>
-    <t>DGT201</t>
-  </si>
-  <si>
-    <t>ESH201</t>
-  </si>
-  <si>
-    <t>ES2</t>
-  </si>
-  <si>
-    <t>JS</t>
-  </si>
-  <si>
-    <t>JPS142</t>
-  </si>
-  <si>
-    <t>JPS152</t>
-  </si>
-  <si>
-    <t>SSC102</t>
-  </si>
-  <si>
-    <t>SWM301</t>
-  </si>
-  <si>
-    <t>PRX301</t>
-  </si>
-  <si>
-    <t>DBD301</t>
-  </si>
-  <si>
-    <t>ESS301</t>
-  </si>
-  <si>
-    <t>DGT301</t>
-  </si>
-  <si>
-    <t>PRM391</t>
-  </si>
-  <si>
-    <t>JPS212</t>
-  </si>
-  <si>
-    <t>JIT301</t>
-  </si>
-  <si>
-    <t>JFE301</t>
-  </si>
-  <si>
-    <t>JPS222</t>
-  </si>
-  <si>
-    <t>DBW301</t>
-  </si>
-  <si>
-    <t>PRC391</t>
-  </si>
-  <si>
     <t>DBI201</t>
   </si>
   <si>
-    <t>VNR201/HCM201</t>
-  </si>
-  <si>
     <t>IA</t>
   </si>
   <si>
@@ -211,9 +124,6 @@
     <t>CES201</t>
   </si>
   <si>
-    <t>IA1</t>
-  </si>
-  <si>
     <t>IAA301</t>
   </si>
   <si>
@@ -227,6 +137,9 @@
   </si>
   <si>
     <t>OSP201</t>
+  </si>
+  <si>
+    <t>PHY101</t>
   </si>
 </sst>
 </file>
@@ -599,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,7 +595,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>14</v>
@@ -778,33 +691,33 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2">
+      <c r="G7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>34</v>
+      <c r="H7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -812,28 +725,28 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -841,57 +754,57 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="2">
-        <v>7</v>
+        <v>32</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3</v>
       </c>
       <c r="D9" s="2">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>39</v>
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="2">
-        <v>7</v>
+      <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4</v>
       </c>
       <c r="D10" s="2">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -899,28 +812,28 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="2">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5</v>
       </c>
       <c r="D11" s="2">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -928,402 +841,28 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="2">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="2">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="2">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2">
-        <v>8</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="2">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="F12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="2">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="2">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2">
-        <v>8</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="2">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2">
-        <v>8</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2">
-        <v>8</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="2">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2">
-        <v>8</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="2">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2">
-        <v>8</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>10</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="2">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2">
-        <v>10</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="5">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2">
-        <v>10</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="6">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2">
-        <v>9</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="6">
-        <v>5</v>
-      </c>
-      <c r="D26" s="2">
-        <v>9</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
